--- a/medicine/Enfance/Cascade_(collection)/Cascade_(collection).xlsx
+++ b/medicine/Enfance/Cascade_(collection)/Cascade_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cascade est le nom d'une collection de littérature d'enfance et de jeunesse des éditions Rageot, créée en 1989.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection Cascade est créée en 1989, pour prendre la suite de la collection Bibliothèque de l'amitié qui s'arrête la même année. Elle réédite plusieurs titres de cette collection, et publie de nombreux titres inédits des mêmes auteurs, mais aussi de nouveaux auteurs.
 Elle se présente sous forme semi-poche, en volumes brochés avec rabats. Elle se décline en plusieurs sous-collections : Cascade aventure, Cascade policier, Cascade 11-12 ans. Il a aussi existé Cascade arc-en-ciel, à partir de 6 ans.
@@ -544,7 +558,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Alessandrini, Le Détective de minuit
